--- a/iselUssSyncV2/OutputWSL/20220517_1126_D60L474W90Q8.8U0.19H59.4G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1126_D60L474W90Q8.8U0.19H59.4G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>60.060395256916976</v>
+        <v>61.1182213438735</v>
       </c>
       <c r="F2" s="0">
-        <v>60.059288537549421</v>
+        <v>61.114861660079065</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>60.573769841269801</v>
+        <v>61.585921235692112</v>
       </c>
       <c r="F3" s="0">
-        <v>62.216944444444408</v>
+        <v>62.952601814962335</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>59.304682539682574</v>
+        <v>58.672539682539714</v>
       </c>
       <c r="F4" s="0">
-        <v>63.497261904761913</v>
+        <v>61.978571428571435</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>58.443968253968329</v>
+        <v>57.764645544804978</v>
       </c>
       <c r="F5" s="0">
-        <v>63.816507936507946</v>
+        <v>62.486268892683242</v>
       </c>
     </row>
     <row r="6">
@@ -202,9 +202,11 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>56.837698412698437</v>
-      </c>
-      <c r="F6" s="0"/>
+        <v>56.036626984127011</v>
+      </c>
+      <c r="F6" s="0">
+        <v>61.720912698412732</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -220,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>53.8167857142857</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>53.619206349206337</v>
+      </c>
+      <c r="F7" s="0">
+        <v>63.092539682539673</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -238,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>48.142310756972115</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>47.941794883956241</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65.296334661354592</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -256,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>44.776984126984125</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>43.950992063492059</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.543928571428573</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -273,9 +281,11 @@
       <c r="D10" s="0">
         <v>-106</v>
       </c>
-      <c r="E10" s="0"/>
+      <c r="E10" s="0">
+        <v>108.50183108834501</v>
+      </c>
       <c r="F10" s="0">
-        <v>20.92206349206349</v>
+        <v>18.22541010560931</v>
       </c>
     </row>
     <row r="11">
@@ -291,9 +301,11 @@
       <c r="D11" s="0">
         <v>-106</v>
       </c>
-      <c r="E11" s="0"/>
+      <c r="E11" s="0">
+        <v>193.15836653386441</v>
+      </c>
       <c r="F11" s="0">
-        <v>23.09266932270916</v>
+        <v>20.403266932270913</v>
       </c>
     </row>
     <row r="12">
@@ -309,9 +321,11 @@
       <c r="D12" s="0">
         <v>-106</v>
       </c>
-      <c r="E12" s="0"/>
+      <c r="E12" s="0">
+        <v>200.06278884462137</v>
+      </c>
       <c r="F12" s="0">
-        <v>24.376533864541834</v>
+        <v>21.722908366533865</v>
       </c>
     </row>
     <row r="13">
@@ -327,9 +341,11 @@
       <c r="D13" s="0">
         <v>-106</v>
       </c>
-      <c r="E13" s="0"/>
+      <c r="E13" s="0">
+        <v>158.91087301587294</v>
+      </c>
       <c r="F13" s="0">
-        <v>25.408015873015874</v>
+        <v>22.714126984126988</v>
       </c>
     </row>
     <row r="14">
@@ -346,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>29.495770750988143</v>
+        <v>28.449834496008062</v>
       </c>
       <c r="F14" s="0">
-        <v>26.061383399209497</v>
+        <v>23.393973040643758</v>
       </c>
     </row>
     <row r="15">
@@ -366,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>29.269047619047623</v>
+        <v>28.217857142857145</v>
       </c>
       <c r="F15" s="0">
-        <v>26.590753968253974</v>
+        <v>23.92940476190477</v>
       </c>
     </row>
     <row r="16">
@@ -386,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>30.179880952380952</v>
+        <v>29.147063492063491</v>
       </c>
       <c r="F16" s="0">
-        <v>26.854841269841273</v>
+        <v>24.840674603174605</v>
       </c>
     </row>
     <row r="17">
@@ -406,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>31.823426294820724</v>
+        <v>31.478545342439773</v>
       </c>
       <c r="F17" s="0">
-        <v>27.028286852589648</v>
+        <v>24.463247170049964</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>31.740438247011973</v>
+        <v>30.682700151773879</v>
       </c>
       <c r="F18" s="0">
-        <v>27.170239043824708</v>
+        <v>24.489088250173914</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>31.839523809523815</v>
+        <v>30.799365079365085</v>
       </c>
       <c r="F19" s="0">
-        <v>27.202222222222225</v>
+        <v>24.544960317460319</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>31.508047808764946</v>
+        <v>30.420984316701453</v>
       </c>
       <c r="F20" s="0">
-        <v>27.405179282868513</v>
+        <v>24.699901505090736</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>30.705896414342622</v>
+        <v>29.658725099601586</v>
       </c>
       <c r="F21" s="0">
-        <v>27.54091633466135</v>
+        <v>24.899322709163343</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>29.035258964143427</v>
+        <v>27.557878011762476</v>
       </c>
       <c r="F22" s="0">
-        <v>27.498804780876483</v>
+        <v>25.217376209447913</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>27.040876494023905</v>
+        <v>25.52382470119522</v>
       </c>
       <c r="F23" s="0">
-        <v>27.584820717131471</v>
+        <v>24.885338645418322</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>23.548849206349214</v>
+        <v>22.063510560930887</v>
       </c>
       <c r="F24" s="0">
-        <v>27.67027777777778</v>
+        <v>24.549480965028778</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>23.048087649402387</v>
+        <v>22.213365427180165</v>
       </c>
       <c r="F25" s="0">
-        <v>27.500836653386461</v>
+        <v>25.183019193069001</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>23.817490039840646</v>
+        <v>23.189282868525904</v>
       </c>
       <c r="F26" s="0">
-        <v>27.540517928286846</v>
+        <v>25.854900398406368</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>23.106055776892426</v>
+        <v>22.427450199203182</v>
       </c>
       <c r="F27" s="0">
-        <v>27.333426294820718</v>
+        <v>25.84171314741036</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>21.407729083665338</v>
+        <v>21.25249098842724</v>
       </c>
       <c r="F28" s="0">
-        <v>26.747290836653384</v>
+        <v>25.341497185859733</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>22.01091633466136</v>
+        <v>21.351352842597869</v>
       </c>
       <c r="F29" s="0">
-        <v>26.650876494023905</v>
+        <v>25.187106652754064</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>21.809282868525909</v>
+        <v>21.622378106621145</v>
       </c>
       <c r="F30" s="0">
-        <v>25.886733067729089</v>
+        <v>25.293677512173534</v>
       </c>
     </row>
   </sheetData>
